--- a/Dataset/Bus.xlsx
+++ b/Dataset/Bus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\UM SCHOOL\Sem 4\ALGO\Assignment\Assignment Path Finding\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0B7C34-FA2A-4BCF-8E55-38509D23A648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D360F-244D-4000-A326-5C2638BDE028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Stop Name</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Temerloh Bus Terminal</t>
+  </si>
+  <si>
+    <t>blank</t>
   </si>
 </sst>
 </file>
@@ -452,19 +455,19 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -491,8 +494,14 @@
       <c r="C2">
         <v>101.783188</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -502,8 +511,14 @@
       <c r="C3" s="2">
         <v>102.926562</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -513,8 +528,14 @@
       <c r="C4" s="2">
         <v>101.675</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -524,8 +545,14 @@
       <c r="C5" s="2">
         <v>101.71293799999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -535,8 +562,14 @@
       <c r="C6" s="2">
         <v>101.675</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -546,8 +579,14 @@
       <c r="C7" s="2">
         <v>102.229187</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -557,8 +596,14 @@
       <c r="C8" s="2">
         <v>102.552063</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -568,8 +613,14 @@
       <c r="C9" s="2">
         <v>103.13731300000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -579,8 +630,14 @@
       <c r="C10" s="2">
         <v>103.284938</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -590,8 +647,14 @@
       <c r="C11" s="3">
         <v>103.741688</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -601,8 +664,14 @@
       <c r="C12" s="2">
         <v>103.88543799999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -612,8 +681,14 @@
       <c r="C13" s="2">
         <v>102.250063</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -623,8 +698,14 @@
       <c r="C14" s="2">
         <v>103.901313</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -634,8 +715,14 @@
       <c r="C15" s="2">
         <v>101.71193700000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -645,8 +732,14 @@
       <c r="C16" s="2">
         <v>100.367063</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -656,8 +749,14 @@
       <c r="C17" s="2">
         <v>103.25943700000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -667,8 +766,14 @@
       <c r="C18" s="2">
         <v>100.66743700000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -678,8 +783,14 @@
       <c r="C19" s="2">
         <v>101.504188</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -689,8 +800,14 @@
       <c r="C20" s="2">
         <v>100.35418799999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -700,8 +817,14 @@
       <c r="C21" s="2">
         <v>100.300313</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -711,8 +834,14 @@
       <c r="C22" s="2">
         <v>101.675</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -722,8 +851,14 @@
       <c r="C23" s="2">
         <v>101.02068800000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -732,6 +867,12 @@
       </c>
       <c r="C24" s="2">
         <v>102.421937</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/Bus.xlsx
+++ b/Dataset/Bus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonX\PycharmProjects\Algo-Assignment\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33D360F-244D-4000-A326-5C2638BDE028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC2090E-3613-486A-B15F-BE8BD5BF0A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Stop Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>blank</t>
+  </si>
+  <si>
+    <t>Terminal Bas Tanah Rata</t>
+  </si>
+  <si>
+    <t>Kuala Perlis Bus Terminal</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,6 +882,40 @@
         <v>28</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>4.4702999999999999</v>
+      </c>
+      <c r="C25">
+        <v>101.37779999999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>6.3973000000000004</v>
+      </c>
+      <c r="C26">
+        <v>100.131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
